--- a/00_Input/01_Emp_Availability_Initial.xlsx
+++ b/00_Input/01_Emp_Availability_Initial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365coloradoedu-my.sharepoint.com/personal/nich7312_colorado_edu/Documents/01. Study/00. Revision &amp; Self Study/01. Portfolio Projects/04. CU BookStore Scheduling/CU-BookStore-Work-Scheduling/00_Input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saaijeeshsn/Desktop/Bookstore/CU-BookStore-Work-Scheduling/00_Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{B79F19CB-EEB7-48D2-B3BD-4F6035EB4B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D67D6691-77CB-40C5-AA89-5B9191004247}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F79D16E-CAE5-CF47-B0A7-5289EE984686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{E1DA71BB-777C-40E8-B57E-811C0132928B}"/>
+    <workbookView xWindow="4300" yWindow="780" windowWidth="21800" windowHeight="12980" xr2:uid="{E1DA71BB-777C-40E8-B57E-811C0132928B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="40">
   <si>
     <t>Aaron* Dorrance</t>
   </si>
@@ -147,6 +147,18 @@
   </si>
   <si>
     <t>Teddrose* Tewolde</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Responsibility</t>
+  </si>
+  <si>
+    <t>Time in</t>
+  </si>
+  <si>
+    <t>Time out</t>
   </si>
 </sst>
 </file>
@@ -538,24 +550,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD353C98-C3B8-4CE3-A198-D8647C6D5A13}">
-  <dimension ref="A2:D40"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.3984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.3984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1328125" style="1"/>
+    <col min="8" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -569,7 +595,7 @@
         <v>45583.416666666664</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -583,7 +609,7 @@
         <v>45583.416666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -597,7 +623,7 @@
         <v>45583.458333333336</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -611,7 +637,7 @@
         <v>45583.416666666664</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -625,7 +651,7 @@
         <v>45583.541666666664</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -639,7 +665,7 @@
         <v>45583.458333333336</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -653,7 +679,7 @@
         <v>45583.541666666664</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -667,7 +693,7 @@
         <v>45583.458333333336</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -681,7 +707,7 @@
         <v>45583.625</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
@@ -695,7 +721,7 @@
         <v>45583.416666666664</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -709,7 +735,7 @@
         <v>45583.625</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -723,7 +749,7 @@
         <v>45583.458333333336</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -737,7 +763,7 @@
         <v>45583.541666666664</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -751,7 +777,7 @@
         <v>45583.625</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -765,7 +791,7 @@
         <v>45583.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -779,7 +805,7 @@
         <v>45583.625</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -793,7 +819,7 @@
         <v>45583.541666666664</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
@@ -807,7 +833,7 @@
         <v>45583.666666666664</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -821,7 +847,7 @@
         <v>45583.583333333336</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -835,7 +861,7 @@
         <v>45583.5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -849,7 +875,7 @@
         <v>45583.625</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
@@ -863,7 +889,7 @@
         <v>45583.708333333336</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
@@ -877,7 +903,7 @@
         <v>45583.541666666664</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -891,7 +917,7 @@
         <v>45583.708333333336</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
@@ -905,7 +931,7 @@
         <v>45583.708333333336</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
@@ -919,7 +945,7 @@
         <v>45583.625</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
@@ -933,7 +959,7 @@
         <v>45583.708333333336</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
@@ -947,7 +973,7 @@
         <v>45583.625</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
@@ -961,7 +987,7 @@
         <v>45583.708333333336</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -975,7 +1001,7 @@
         <v>45583.760416666664</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
@@ -989,7 +1015,7 @@
         <v>45583.708333333336</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
@@ -1003,7 +1029,7 @@
         <v>45583.666666666664</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>19</v>
       </c>
@@ -1017,7 +1043,7 @@
         <v>45583.708333333336</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>20</v>
       </c>
@@ -1031,7 +1057,7 @@
         <v>45583.708333333336</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>25</v>
       </c>
@@ -1045,7 +1071,7 @@
         <v>45583.666666666664</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
@@ -1059,7 +1085,7 @@
         <v>45583.708333333336</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -1073,7 +1099,7 @@
         <v>45583.708333333336</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,7 +1113,7 @@
         <v>45583.708333333336</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>7</v>
       </c>

--- a/00_Input/01_Emp_Availability_Initial.xlsx
+++ b/00_Input/01_Emp_Availability_Initial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saaijeeshsn/Desktop/Bookstore/CU-BookStore-Work-Scheduling/00_Input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365coloradoedu-my.sharepoint.com/personal/nich7312_colorado_edu/Documents/01. Study/00. Revision &amp; Self Study/01. Portfolio Projects/04. CU BookStore Scheduling/CU-BookStore-Work-Scheduling/00_Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F79D16E-CAE5-CF47-B0A7-5289EE984686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{7F79D16E-CAE5-CF47-B0A7-5289EE984686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{110564D3-C25F-4164-A6AB-1397E4CF21E4}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="780" windowWidth="21800" windowHeight="12980" xr2:uid="{E1DA71BB-777C-40E8-B57E-811C0132928B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{E1DA71BB-777C-40E8-B57E-811C0132928B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,9 +71,6 @@
     <t>Caroline Lester</t>
   </si>
   <si>
-    <t>Carson Turk</t>
-  </si>
-  <si>
     <t>Dev Mahajan</t>
   </si>
   <si>
@@ -159,6 +156,9 @@
   </si>
   <si>
     <t>Time out</t>
+  </si>
+  <si>
+    <t>Saaijeesh Naresh</t>
   </si>
 </sst>
 </file>
@@ -553,35 +553,35 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="5.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1640625" style="1"/>
+    <col min="8" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -595,7 +595,7 @@
         <v>45583.416666666664</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -609,7 +609,7 @@
         <v>45583.416666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -623,7 +623,7 @@
         <v>45583.458333333336</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -637,9 +637,9 @@
         <v>45583.416666666664</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
@@ -651,12 +651,12 @@
         <v>45583.541666666664</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C7" s="2">
         <v>45583.364583333336</v>
@@ -665,12 +665,12 @@
         <v>45583.458333333336</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2">
         <v>45583.364583333336</v>
@@ -679,9 +679,9 @@
         <v>45583.541666666664</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>1</v>
@@ -693,9 +693,9 @@
         <v>45583.458333333336</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
@@ -707,9 +707,9 @@
         <v>45583.625</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>1</v>
@@ -721,7 +721,7 @@
         <v>45583.416666666664</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -735,9 +735,9 @@
         <v>45583.625</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1</v>
@@ -749,9 +749,9 @@
         <v>45583.458333333336</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>4</v>
@@ -763,9 +763,9 @@
         <v>45583.541666666664</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1</v>
@@ -777,7 +777,7 @@
         <v>45583.625</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -791,9 +791,9 @@
         <v>45583.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>1</v>
@@ -805,12 +805,12 @@
         <v>45583.625</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="2">
         <v>45583.458333333336</v>
@@ -819,9 +819,9 @@
         <v>45583.541666666664</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>8</v>
@@ -833,12 +833,12 @@
         <v>45583.666666666664</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="2">
         <v>45583.458333333336</v>
@@ -847,12 +847,12 @@
         <v>45583.583333333336</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="2">
         <v>45583.458333333336</v>
@@ -861,7 +861,7 @@
         <v>45583.5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -875,12 +875,12 @@
         <v>45583.625</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C23" s="2">
         <v>45583.5</v>
@@ -889,9 +889,9 @@
         <v>45583.708333333336</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>1</v>
@@ -903,12 +903,12 @@
         <v>45583.541666666664</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" s="2">
         <v>45583.541666666664</v>
@@ -917,9 +917,9 @@
         <v>45583.708333333336</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>1</v>
@@ -931,9 +931,9 @@
         <v>45583.708333333336</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>4</v>
@@ -945,9 +945,9 @@
         <v>45583.625</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>1</v>
@@ -959,12 +959,12 @@
         <v>45583.708333333336</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29" s="2">
         <v>45583.541666666664</v>
@@ -973,12 +973,12 @@
         <v>45583.625</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30" s="2">
         <v>45583.583333333336</v>
@@ -987,12 +987,12 @@
         <v>45583.708333333336</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C31" s="2">
         <v>45583.604166666664</v>
@@ -1001,7 +1001,7 @@
         <v>45583.760416666664</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>45583.708333333336</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
@@ -1029,9 +1029,9 @@
         <v>45583.666666666664</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>1</v>
@@ -1043,12 +1043,12 @@
         <v>45583.708333333336</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C35" s="2">
         <v>45583.625</v>
@@ -1057,9 +1057,9 @@
         <v>45583.708333333336</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>1</v>
@@ -1071,9 +1071,9 @@
         <v>45583.666666666664</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>1</v>
@@ -1085,7 +1085,7 @@
         <v>45583.708333333336</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>45583.708333333336</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>45583.708333333336</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>7</v>
       </c>

--- a/00_Input/01_Emp_Availability_Initial.xlsx
+++ b/00_Input/01_Emp_Availability_Initial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365coloradoedu-my.sharepoint.com/personal/nich7312_colorado_edu/Documents/01. Study/00. Revision &amp; Self Study/01. Portfolio Projects/04. CU BookStore Scheduling/CU-BookStore-Work-Scheduling/00_Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{7F79D16E-CAE5-CF47-B0A7-5289EE984686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{110564D3-C25F-4164-A6AB-1397E4CF21E4}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{7F79D16E-CAE5-CF47-B0A7-5289EE984686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF5DA0F7-FB1D-4A6A-B8E0-8492D6167176}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{E1DA71BB-777C-40E8-B57E-811C0132928B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$D$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,113 +39,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="40">
-  <si>
-    <t>Aaron* Dorrance</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
   <si>
     <t>Sales Floor</t>
   </si>
   <si>
-    <t>Aidan Priller</t>
-  </si>
-  <si>
-    <t>Ana* Gonzalez</t>
-  </si>
-  <si>
     <t>Lead Student</t>
   </si>
   <si>
-    <t>Analuisa Flores Teran</t>
-  </si>
-  <si>
-    <t>Available</t>
-  </si>
-  <si>
-    <t>Calvin # Levy</t>
-  </si>
-  <si>
     <t>Greeter</t>
   </si>
   <si>
-    <t>Caroline Lester</t>
-  </si>
-  <si>
-    <t>Dev Mahajan</t>
-  </si>
-  <si>
     <t>Technology</t>
   </si>
   <si>
-    <t>Elijah Kodjak</t>
-  </si>
-  <si>
-    <t>Elizabeth Jurry</t>
-  </si>
-  <si>
     <t>Stockroom</t>
   </si>
   <si>
-    <t>Ellia* Bono</t>
-  </si>
-  <si>
-    <t>Ethan Palmer</t>
-  </si>
-  <si>
-    <t>Jackson Carter</t>
-  </si>
-  <si>
-    <t>Lauren* Koski</t>
-  </si>
-  <si>
-    <t>Luke* Ruhl</t>
-  </si>
-  <si>
-    <t>Mali Chavez</t>
-  </si>
-  <si>
-    <t>Marco Villasuso</t>
-  </si>
-  <si>
-    <t>Mariana Cepeda</t>
-  </si>
-  <si>
-    <t>Marsailles Wesley</t>
-  </si>
-  <si>
-    <t>Mason Bessette</t>
-  </si>
-  <si>
-    <t>Mohammed Alhazmi</t>
-  </si>
-  <si>
-    <t>Om Jadhav</t>
-  </si>
-  <si>
-    <t>Ricardo Gomez</t>
-  </si>
-  <si>
-    <t>Saaijeesh Sottalu Naresh</t>
-  </si>
-  <si>
-    <t>Scott Hackney</t>
-  </si>
-  <si>
     <t>Office Work</t>
   </si>
   <si>
-    <t>Serenity* Munoz</t>
-  </si>
-  <si>
-    <t>Solymar Kneale</t>
-  </si>
-  <si>
-    <t>Summer Sutton</t>
-  </si>
-  <si>
-    <t>Teddrose* Tewolde</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -159,6 +72,99 @@
   </si>
   <si>
     <t>Saaijeesh Naresh</t>
+  </si>
+  <si>
+    <t>TEST001</t>
+  </si>
+  <si>
+    <t>TEST002</t>
+  </si>
+  <si>
+    <t>TEST003</t>
+  </si>
+  <si>
+    <t>TEST004</t>
+  </si>
+  <si>
+    <t>TEST005</t>
+  </si>
+  <si>
+    <t>TEST006</t>
+  </si>
+  <si>
+    <t>Test007</t>
+  </si>
+  <si>
+    <t>Test008</t>
+  </si>
+  <si>
+    <t>Test009</t>
+  </si>
+  <si>
+    <t>Test010</t>
+  </si>
+  <si>
+    <t>Test011</t>
+  </si>
+  <si>
+    <t>Test012</t>
+  </si>
+  <si>
+    <t>Test013</t>
+  </si>
+  <si>
+    <t>Test014</t>
+  </si>
+  <si>
+    <t>Test015</t>
+  </si>
+  <si>
+    <t>Test016</t>
+  </si>
+  <si>
+    <t>Test017</t>
+  </si>
+  <si>
+    <t>Test018</t>
+  </si>
+  <si>
+    <t>Test019</t>
+  </si>
+  <si>
+    <t>Test020</t>
+  </si>
+  <si>
+    <t>Test021</t>
+  </si>
+  <si>
+    <t>Test022</t>
+  </si>
+  <si>
+    <t>Test023</t>
+  </si>
+  <si>
+    <t>Test024</t>
+  </si>
+  <si>
+    <t>Test025</t>
+  </si>
+  <si>
+    <t>Test026</t>
+  </si>
+  <si>
+    <t>Test027</t>
+  </si>
+  <si>
+    <t>Test028</t>
+  </si>
+  <si>
+    <t>Test029</t>
+  </si>
+  <si>
+    <t>Test030</t>
+  </si>
+  <si>
+    <t>Test031</t>
   </si>
 </sst>
 </file>
@@ -168,10 +174,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -553,12 +565,12 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.265625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1328125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.33203125" style="1" customWidth="1"/>
@@ -569,41 +581,41 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2">
-        <v>45583.354166666664</v>
+        <v>45583.364583333336</v>
       </c>
       <c r="D2" s="2">
-        <v>45583.416666666664</v>
+        <v>45583.541666666664</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>45583.364583333336</v>
+        <v>45583.354166666664</v>
       </c>
       <c r="D3" s="2">
         <v>45583.416666666664</v>
@@ -611,167 +623,167 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
         <v>45583.364583333336</v>
       </c>
       <c r="D4" s="2">
-        <v>45583.458333333336</v>
+        <v>45583.416666666664</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>45583.364583333336</v>
+        <v>45583.5</v>
       </c>
       <c r="D5" s="2">
-        <v>45583.416666666664</v>
+        <v>45583.625</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
         <v>45583.364583333336</v>
       </c>
       <c r="D6" s="2">
-        <v>45583.541666666664</v>
+        <v>45583.458333333336</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>45583.364583333336</v>
+        <v>45583.625</v>
       </c>
       <c r="D7" s="2">
-        <v>45583.458333333336</v>
+        <v>45583.708333333336</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C8" s="2">
         <v>45583.364583333336</v>
       </c>
       <c r="D8" s="2">
-        <v>45583.541666666664</v>
+        <v>45583.416666666664</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="2">
-        <v>45583.364583333336</v>
+        <v>45583.458333333336</v>
       </c>
       <c r="D9" s="2">
-        <v>45583.458333333336</v>
+        <v>45583.5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" s="2">
         <v>45583.364583333336</v>
       </c>
       <c r="D10" s="2">
-        <v>45583.625</v>
+        <v>45583.458333333336</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11" s="2">
         <v>45583.364583333336</v>
       </c>
       <c r="D11" s="2">
-        <v>45583.416666666664</v>
+        <v>45583.541666666664</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>45583.416666666664</v>
+        <v>45583.666666666664</v>
       </c>
       <c r="D12" s="2">
-        <v>45583.625</v>
+        <v>45583.708333333336</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="2">
-        <v>45583.416666666664</v>
+        <v>45583.625</v>
       </c>
       <c r="D13" s="2">
-        <v>45583.458333333336</v>
+        <v>45583.666666666664</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C14" s="2">
-        <v>45583.416666666664</v>
+        <v>45583.670138888891</v>
       </c>
       <c r="D14" s="2">
-        <v>45583.541666666664</v>
+        <v>45583.760416666664</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="2">
-        <v>45583.416666666664</v>
+        <v>45583.458333333336</v>
       </c>
       <c r="D15" s="2">
         <v>45583.625</v>
@@ -779,150 +791,150 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>45583.458333333336</v>
+        <v>45583.5</v>
       </c>
       <c r="D16" s="2">
-        <v>45583.5</v>
+        <v>45583.708333333336</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>45583.458333333336</v>
+        <v>45583.541666666664</v>
       </c>
       <c r="D17" s="2">
-        <v>45583.625</v>
+        <v>45583.708333333336</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C18" s="2">
+        <v>45583.364583333336</v>
+      </c>
+      <c r="D18" s="2">
         <v>45583.458333333336</v>
-      </c>
-      <c r="D18" s="2">
-        <v>45583.541666666664</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C19" s="2">
-        <v>45583.458333333336</v>
+        <v>45583.541666666664</v>
       </c>
       <c r="D19" s="2">
-        <v>45583.666666666664</v>
+        <v>45583.708333333336</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C20" s="2">
-        <v>45583.458333333336</v>
+        <v>45583.625</v>
       </c>
       <c r="D20" s="2">
-        <v>45583.583333333336</v>
+        <v>45583.708333333336</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C21" s="2">
         <v>45583.458333333336</v>
       </c>
       <c r="D21" s="2">
-        <v>45583.5</v>
+        <v>45583.541666666664</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C22" s="2">
-        <v>45583.5</v>
+        <v>45583.625</v>
       </c>
       <c r="D22" s="2">
-        <v>45583.625</v>
+        <v>45583.708333333336</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C23" s="2">
-        <v>45583.5</v>
+        <v>45583.541666666664</v>
       </c>
       <c r="D23" s="2">
-        <v>45583.708333333336</v>
+        <v>45583.625</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C24" s="2">
-        <v>45583.5</v>
+        <v>45583.583333333336</v>
       </c>
       <c r="D24" s="2">
-        <v>45583.541666666664</v>
+        <v>45583.708333333336</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C25" s="2">
-        <v>45583.541666666664</v>
+        <v>45583.416666666664</v>
       </c>
       <c r="D25" s="2">
-        <v>45583.708333333336</v>
+        <v>45583.458333333336</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="2">
         <v>45583.541666666664</v>
@@ -933,204 +945,210 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C27" s="2">
+        <v>45583.416666666664</v>
+      </c>
+      <c r="D27" s="2">
         <v>45583.541666666664</v>
-      </c>
-      <c r="D27" s="2">
-        <v>45583.625</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="2">
-        <v>45583.541666666664</v>
+        <v>45583.625</v>
       </c>
       <c r="D28" s="2">
-        <v>45583.708333333336</v>
+        <v>45583.666666666664</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C29" s="2">
-        <v>45583.541666666664</v>
+        <v>45583.458333333336</v>
       </c>
       <c r="D29" s="2">
-        <v>45583.625</v>
+        <v>45583.666666666664</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C30" s="2">
-        <v>45583.583333333336</v>
+        <v>45583.416666666664</v>
       </c>
       <c r="D30" s="2">
-        <v>45583.708333333336</v>
+        <v>45583.625</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C31" s="2">
-        <v>45583.604166666664</v>
+        <v>45583.625</v>
       </c>
       <c r="D31" s="2">
-        <v>45583.760416666664</v>
+        <v>45583.708333333336</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C32" s="2">
-        <v>45583.625</v>
+        <v>45583.458333333336</v>
       </c>
       <c r="D32" s="2">
-        <v>45583.708333333336</v>
+        <v>45583.583333333336</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C33" s="2">
-        <v>45583.625</v>
+        <v>45583.604166666664</v>
       </c>
       <c r="D33" s="2">
-        <v>45583.666666666664</v>
+        <v>45583.760416666664</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C34" s="2">
-        <v>45583.625</v>
+        <v>45583.458333333336</v>
       </c>
       <c r="D34" s="2">
-        <v>45583.708333333336</v>
+        <v>45583.5</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C35" s="2">
-        <v>45583.625</v>
+        <v>45583.541666666664</v>
       </c>
       <c r="D35" s="2">
-        <v>45583.708333333336</v>
+        <v>45583.625</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" s="2">
-        <v>45583.625</v>
+        <v>45583.364583333336</v>
       </c>
       <c r="D36" s="2">
-        <v>45583.666666666664</v>
+        <v>45583.625</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" s="2">
-        <v>45583.625</v>
+        <v>45583.5</v>
       </c>
       <c r="D37" s="2">
-        <v>45583.708333333336</v>
+        <v>45583.541666666664</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" s="2">
-        <v>45583.666666666664</v>
+        <v>45583.364583333336</v>
       </c>
       <c r="D38" s="2">
-        <v>45583.708333333336</v>
+        <v>45583.416666666664</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" s="2">
-        <v>45583.666666666664</v>
+        <v>45583.416666666664</v>
       </c>
       <c r="D39" s="2">
-        <v>45583.708333333336</v>
+        <v>45583.625</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C40" s="2">
-        <v>45583.670138888891</v>
+        <v>45583.666666666664</v>
       </c>
       <c r="D40" s="2">
-        <v>45583.760416666664</v>
+        <v>45583.708333333336</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D40" xr:uid="{DD353C98-C3B8-4CE3-A198-D8647C6D5A13}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D40">
+      <sortCondition ref="A1:A40"/>
+    </sortState>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D40">
     <sortCondition ref="C1:C40"/>
   </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
